--- a/Produktionsförderung/Anlage 8/Anlage_8_Vorlage_Projektplan_GBW.xlsx
+++ b/Produktionsförderung/Anlage 8/Anlage_8_Vorlage_Projektplan_GBW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\Anlage 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7C23E0-A7D7-42F7-8067-32D1543B61C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD0AC1-6E27-4357-A5BF-3242C89A9C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="4560" windowWidth="19905" windowHeight="21765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="3330" windowWidth="22665" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJEKTPLAN" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:Y977"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -970,7 +970,7 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="9"/>
@@ -1000,7 +1000,7 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
